--- a/Milestone3/Alternate Scheduling/Simulation_Throughputs_O.xlsx
+++ b/Milestone3/Alternate Scheduling/Simulation_Throughputs_O.xlsx
@@ -1,37 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\PycharmProjects\SYSC4005AProject\Milestone3\Alternate Scheduling\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC974EF-A867-41A0-8114-FFE4A87174E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3165" yWindow="2070" windowWidth="21615" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Replica</t>
+  </si>
+  <si>
+    <t>Throughput(product/hour)</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>Average:</t>
+  </si>
+  <si>
+    <t>Std:</t>
+  </si>
+  <si>
+    <t>CI:+-0.12179</t>
+  </si>
+  <si>
+    <t>PI:+-0.44185</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +78,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,83 +97,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,196 +402,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Replica</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Throughput(product/hour)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>TE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>5.673333333333333</v>
-      </c>
-      <c r="C2" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>6.116666666666666</v>
-      </c>
-      <c r="C3" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5.6733333333333329</v>
+      </c>
+      <c r="C2">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6.1166666666666663</v>
+      </c>
+      <c r="C3">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>5.916666666666667</v>
       </c>
-      <c r="C4" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="C4">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>5.783333333333333</v>
-      </c>
-      <c r="C5" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B5">
+        <v>5.7833333333333332</v>
+      </c>
+      <c r="C5">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>5.946666666666666</v>
-      </c>
-      <c r="C6" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B6">
+        <v>5.9466666666666663</v>
+      </c>
+      <c r="C6">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>5.81</v>
       </c>
-      <c r="C7" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="C7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>5.55</v>
       </c>
-      <c r="C8" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="C8">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
-        <v>5.966666666666667</v>
-      </c>
-      <c r="C9" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="B9">
+        <v>5.9666666666666668</v>
+      </c>
+      <c r="C9">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>5.59</v>
       </c>
-      <c r="C10" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="C10">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>5.73</v>
       </c>
-      <c r="C11" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average:</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5.808333333333334</v>
-      </c>
-      <c r="C12" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Std:</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="C11">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>5.8083333333333336</v>
+      </c>
+      <c r="C12">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
         <v>0.1704128972688263</v>
       </c>
-      <c r="C13" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CI:+-0.12179</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5.686543538376797</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5.930123128289872</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>PI:+-0.44185</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5.366481742116964</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6.250184924549705</v>
+      <c r="C13">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>5.6865435383767968</v>
+      </c>
+      <c r="C14">
+        <v>5.9301231282898721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>5.3664817421169637</v>
+      </c>
+      <c r="C15">
+        <v>6.2501849245497052</v>
       </c>
     </row>
   </sheetData>

--- a/Milestone3/Alternate Scheduling/Simulation_Throughputs_O.xlsx
+++ b/Milestone3/Alternate Scheduling/Simulation_Throughputs_O.xlsx
@@ -8,19 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\PycharmProjects\SYSC4005AProject\Milestone3\Alternate Scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC974EF-A867-41A0-8114-FFE4A87174E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0596A4D9-F608-42B4-974F-A04C9526A48A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="2070" windowWidth="21615" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4665" yWindow="1380" windowWidth="21615" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Replica</t>
   </si>
@@ -41,6 +56,12 @@
   </si>
   <si>
     <t>PI:+-0.44185</t>
+  </si>
+  <si>
+    <t>Alternate 1 comparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternate 1 with inspector 2 comparison </t>
   </si>
 </sst>
 </file>
@@ -116,6 +137,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="12">
+          <cell r="B12">
+            <v>5.7893333333333334</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>0.12901162738296121</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="12">
+          <cell r="B12">
+            <v>5.8340000000000014</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>0.17084625967355679</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,15 +472,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,7 +491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -433,7 +502,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -444,7 +513,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -455,7 +524,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -466,7 +535,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -477,7 +546,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -488,7 +557,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -499,7 +568,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -510,7 +579,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -521,7 +590,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -531,8 +600,14 @@
       <c r="C11">
         <v>18000</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -542,8 +617,20 @@
       <c r="C12">
         <v>18000</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f>B13/10</f>
+        <v>1.7041289726882632E-2</v>
+      </c>
+      <c r="G12">
+        <f>[1]Sheet1!$B$13/10</f>
+        <v>1.2901162738296121E-2</v>
+      </c>
+      <c r="J12">
+        <f>[2]Sheet1!$B$13/10</f>
+        <v>1.7084625967355681E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -553,8 +640,24 @@
       <c r="C13">
         <v>18000</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f>SQRT(G12+F12)</f>
+        <v>0.17303887558921188</v>
+      </c>
+      <c r="G13">
+        <f>((F12+G12)^2)/(((F12^2)/9)+((G12^2)/9))</f>
+        <v>17.662323817188053</v>
+      </c>
+      <c r="J13">
+        <f>SQRT(J12+F12)</f>
+        <v>0.18473201047527824</v>
+      </c>
+      <c r="K13">
+        <f>((F12+J12)^2)/(((F12^2)/9)+((J12^2)/9))</f>
+        <v>17.999970972766757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -565,7 +668,7 @@
         <v>5.9301231282898721</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -574,6 +677,30 @@
       </c>
       <c r="C15">
         <v>6.2501849245497052</v>
+      </c>
+      <c r="F15">
+        <f>B12-[1]Sheet1!$B$12</f>
+        <v>1.9000000000000128E-2</v>
+      </c>
+      <c r="G15">
+        <v>2.11</v>
+      </c>
+      <c r="J15">
+        <f>B12-[2]Sheet1!$B$12</f>
+        <v>-2.5666666666667837E-2</v>
+      </c>
+      <c r="K15">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f>F13*G15</f>
+        <v>0.36511202749323707</v>
+      </c>
+      <c r="J16">
+        <f>K15*J13</f>
+        <v>0.38793722199808434</v>
       </c>
     </row>
   </sheetData>
